--- a/data/trans_orig/P16A03-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A03-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2731</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7538</v>
+        <v>7229</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00552707949420151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001712280409857912</v>
+        <v>0.001708785667900644</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01525629847999675</v>
+        <v>0.01463265049919455</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -765,19 +765,19 @@
         <v>19091</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12417</v>
+        <v>11717</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29266</v>
+        <v>30001</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04083728648207989</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02656108914217859</v>
+        <v>0.02506296630379503</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06260207721352626</v>
+        <v>0.06417581637953039</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -786,19 +786,19 @@
         <v>21822</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14528</v>
+        <v>14314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33123</v>
+        <v>34061</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02269424272162261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01510885739459946</v>
+        <v>0.01488656725669408</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03444752433145012</v>
+        <v>0.03542321827679472</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>491333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>486526</v>
+        <v>486835</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>493218</v>
+        <v>493220</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9944729205057985</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9847437015200025</v>
+        <v>0.9853673495008054</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9982877195901421</v>
+        <v>0.9982912143320993</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>470</v>
@@ -836,19 +836,19 @@
         <v>448398</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>438223</v>
+        <v>437488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>455072</v>
+        <v>455772</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9591627135179202</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9373979227864737</v>
+        <v>0.9358241836204696</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9734389108578213</v>
+        <v>0.9749370336962049</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>966</v>
@@ -857,19 +857,19 @@
         <v>939731</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>928430</v>
+        <v>927492</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>947025</v>
+        <v>947239</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9773057572783774</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9655524756685494</v>
+        <v>0.9645767817232053</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9848911426054003</v>
+        <v>0.9851134327433059</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5562</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2638</v>
+        <v>2630</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12834</v>
+        <v>11500</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007562984973657162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003586363330682007</v>
+        <v>0.003575944452162669</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01744972454766882</v>
+        <v>0.01563546588186756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -982,19 +982,19 @@
         <v>28783</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19524</v>
+        <v>19764</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>40092</v>
+        <v>40949</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04601701498529208</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03121293975012839</v>
+        <v>0.03159676026451582</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06409640285317544</v>
+        <v>0.06546676911344243</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>33</v>
@@ -1003,19 +1003,19 @@
         <v>34346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>24639</v>
+        <v>23708</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>48372</v>
+        <v>47907</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0252360699270847</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01810385968541982</v>
+        <v>0.01741973466573781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03554181929974735</v>
+        <v>0.03520067480147494</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>729927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>722655</v>
+        <v>723989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>732851</v>
+        <v>732859</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9924370150263429</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9825502754523311</v>
+        <v>0.9843645341181324</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.996413636669318</v>
+        <v>0.9964240555478373</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>564</v>
@@ -1053,19 +1053,19 @@
         <v>596711</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>585402</v>
+        <v>584545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>605970</v>
+        <v>605730</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9539829850147079</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9359035971468245</v>
+        <v>0.9345332308865578</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9687870602498715</v>
+        <v>0.9684032397354843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1261</v>
@@ -1074,19 +1074,19 @@
         <v>1326636</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1312610</v>
+        <v>1313075</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1336343</v>
+        <v>1337274</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9747639300729153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9644581807002527</v>
+        <v>0.9647993251985251</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9818961403145802</v>
+        <v>0.9825802653342621</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>13866</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7438</v>
+        <v>7753</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24291</v>
+        <v>23074</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0217458955732853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01166444058493732</v>
+        <v>0.01215927189854986</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03809515553830465</v>
+        <v>0.03618641245818341</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1199,19 +1199,19 @@
         <v>22128</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14243</v>
+        <v>13617</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32372</v>
+        <v>32172</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03208202730219934</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02064896566048675</v>
+        <v>0.01974195121353444</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0469333968698508</v>
+        <v>0.0466427599256754</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>35</v>
@@ -1220,19 +1220,19 @@
         <v>35995</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25876</v>
+        <v>26397</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49643</v>
+        <v>50119</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02711678715181919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01949411310158114</v>
+        <v>0.01988654175212305</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03739905498169478</v>
+        <v>0.03775770078627931</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>623783</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>613358</v>
+        <v>614575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>630211</v>
+        <v>629896</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9782541044267147</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9619048444616954</v>
+        <v>0.9638135875418168</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9883355594150627</v>
+        <v>0.9878407281014502</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>636</v>
@@ -1270,19 +1270,19 @@
         <v>667616</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>657372</v>
+        <v>657572</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>675501</v>
+        <v>676127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9679179726978007</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9530666031301492</v>
+        <v>0.9533572400743245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9793510343395132</v>
+        <v>0.9802580487864655</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1235</v>
@@ -1291,19 +1291,19 @@
         <v>1291399</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1277751</v>
+        <v>1277275</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1301518</v>
+        <v>1300997</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9728832128481808</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9626009450183052</v>
+        <v>0.9622422992137207</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9805058868984189</v>
+        <v>0.980113458247877</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>8697</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3903</v>
+        <v>3898</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17380</v>
+        <v>17236</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01675296493141515</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007517772173399207</v>
+        <v>0.007507782530123784</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03347889077916987</v>
+        <v>0.03320153025253805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>21</v>
@@ -1416,19 +1416,19 @@
         <v>21248</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13718</v>
+        <v>13450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34170</v>
+        <v>31840</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04120628688752997</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0266041364391355</v>
+        <v>0.02608377579651482</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06626767300352711</v>
+        <v>0.06174850241553324</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -1437,19 +1437,19 @@
         <v>29945</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20839</v>
+        <v>20394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>42829</v>
+        <v>42979</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02893821158191773</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02013818857920285</v>
+        <v>0.01970863514294279</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04138933595258991</v>
+        <v>0.04153376501485864</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>510450</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>501767</v>
+        <v>501911</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>515244</v>
+        <v>515249</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9832470350685849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9665211092208303</v>
+        <v>0.9667984697474619</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9924822278266008</v>
+        <v>0.9924922174698763</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>481</v>
@@ -1487,19 +1487,19 @@
         <v>494394</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>481472</v>
+        <v>483802</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>501924</v>
+        <v>502192</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9587937131124701</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9337323269964737</v>
+        <v>0.9382514975844671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9733958635608645</v>
+        <v>0.9739162242034852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>957</v>
@@ -1508,19 +1508,19 @@
         <v>1004844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>991960</v>
+        <v>991810</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1013950</v>
+        <v>1014395</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9710617884180823</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9586106640474101</v>
+        <v>0.9584662349851409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9798618114207971</v>
+        <v>0.9802913648570571</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>12563</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6077</v>
+        <v>6594</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23292</v>
+        <v>22763</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0324867176182034</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01571539844033745</v>
+        <v>0.01705166189642077</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06023133266973121</v>
+        <v>0.05886400926949938</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -1633,19 +1633,19 @@
         <v>27417</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>19105</v>
+        <v>18645</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39029</v>
+        <v>38456</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06786551536670771</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04729171244480691</v>
+        <v>0.04615270070963111</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0966103179940543</v>
+        <v>0.09519103460862083</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1654,19 +1654,19 @@
         <v>39980</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29043</v>
+        <v>28377</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55650</v>
+        <v>55123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05056261276333757</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0367312603209203</v>
+        <v>0.0358881763960866</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07038111855267111</v>
+        <v>0.06971476505949178</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>374147</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>363418</v>
+        <v>363947</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>380633</v>
+        <v>380116</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9675132823817966</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9397686673302688</v>
+        <v>0.9411359907305006</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9842846015596625</v>
+        <v>0.9829483381035792</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>369</v>
@@ -1704,19 +1704,19 @@
         <v>376569</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>364957</v>
+        <v>365530</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>384881</v>
+        <v>385341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9321344846332923</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.903389682005946</v>
+        <v>0.9048089653913792</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9527082875551932</v>
+        <v>0.9538472992903688</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>750</v>
@@ -1725,19 +1725,19 @@
         <v>750716</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>735046</v>
+        <v>735573</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>761653</v>
+        <v>762319</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9494373872366624</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.929618881447329</v>
+        <v>0.930285234940509</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9632687396790793</v>
+        <v>0.9641118236039137</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>12376</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6922</v>
+        <v>6938</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21572</v>
+        <v>21366</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04229945111275922</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02365764423967045</v>
+        <v>0.02371181256804203</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07372821596113414</v>
+        <v>0.07302517145598679</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>40</v>
@@ -1850,19 +1850,19 @@
         <v>36931</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>27105</v>
+        <v>26966</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>48410</v>
+        <v>48055</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1076918280271131</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07903741975495988</v>
+        <v>0.07863384829226271</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1411643590913156</v>
+        <v>0.1401290863495198</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>52</v>
@@ -1871,19 +1871,19 @@
         <v>49307</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37489</v>
+        <v>37193</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62289</v>
+        <v>65479</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07758610646172248</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05898903814270493</v>
+        <v>0.0585239632567983</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09801350660126645</v>
+        <v>0.1030322390238744</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>280207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>271011</v>
+        <v>271217</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>285661</v>
+        <v>285645</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9577005488872408</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9262717840388658</v>
+        <v>0.9269748285440133</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9763423557603296</v>
+        <v>0.976288187431958</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>331</v>
@@ -1921,19 +1921,19 @@
         <v>306003</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>294524</v>
+        <v>294879</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>315829</v>
+        <v>315968</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8923081719728869</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8588356409086846</v>
+        <v>0.8598709136504801</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9209625802450401</v>
+        <v>0.9213661517077372</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>622</v>
@@ -1942,19 +1942,19 @@
         <v>586210</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>573228</v>
+        <v>570038</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>598028</v>
+        <v>598324</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9224138935382775</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9019864933987337</v>
+        <v>0.8969677609761256</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.941010961857295</v>
+        <v>0.9414760367432017</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>17482</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10670</v>
+        <v>10256</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27111</v>
+        <v>26945</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08329167699625314</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05083963128164858</v>
+        <v>0.04886423804135957</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1291718641555389</v>
+        <v>0.1283815022178219</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -2067,19 +2067,19 @@
         <v>24088</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15994</v>
+        <v>15854</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>35802</v>
+        <v>36213</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07213855913874087</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04789802574207896</v>
+        <v>0.04747886716502361</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1072196616465859</v>
+        <v>0.1084521501404856</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>38</v>
@@ -2088,19 +2088,19 @@
         <v>41569</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30315</v>
+        <v>30152</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55383</v>
+        <v>57339</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0764432458930846</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.05574758749705172</v>
+        <v>0.05544852044767619</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1018457146947965</v>
+        <v>0.1054437768795044</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>192401</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>182772</v>
+        <v>182938</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>199213</v>
+        <v>199627</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9167083230037468</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8708281358444611</v>
+        <v>0.8716184977821783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9491603687183514</v>
+        <v>0.9511357619586407</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>268</v>
@@ -2138,19 +2138,19 @@
         <v>309820</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>298106</v>
+        <v>297695</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>317914</v>
+        <v>318054</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9278614408612591</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8927803383534141</v>
+        <v>0.8915478498595144</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9521019742579211</v>
+        <v>0.9525211328349764</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>472</v>
@@ -2159,19 +2159,19 @@
         <v>502222</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>488408</v>
+        <v>486452</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>513476</v>
+        <v>513639</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9235567541069154</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8981542853052034</v>
+        <v>0.8945562231204955</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9442524125029482</v>
+        <v>0.9445514795523238</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>73277</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58554</v>
+        <v>56794</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>94586</v>
+        <v>91144</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02237115483049533</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01787624841270709</v>
+        <v>0.0173388800541074</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0288765491678696</v>
+        <v>0.0278258246201784</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>178</v>
@@ -2284,19 +2284,19 @@
         <v>179686</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>156609</v>
+        <v>152963</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>207697</v>
+        <v>204565</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05317416256904241</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04634489438971721</v>
+        <v>0.04526609960611089</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06146344848268166</v>
+        <v>0.06053652538851954</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>247</v>
@@ -2305,19 +2305,19 @@
         <v>252963</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>224524</v>
+        <v>225201</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>284559</v>
+        <v>285471</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03801259464494729</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03373898616079787</v>
+        <v>0.03384077625063487</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04276052137304136</v>
+        <v>0.04289754052789286</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>3202248</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3180939</v>
+        <v>3184381</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3216971</v>
+        <v>3218731</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9776288451695047</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9711234508321306</v>
+        <v>0.9721741753798209</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9821237515872929</v>
+        <v>0.9826611199458924</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3119</v>
@@ -2355,19 +2355,19 @@
         <v>3199511</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3171500</v>
+        <v>3174632</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3222588</v>
+        <v>3226234</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9468258374309576</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9385365515173183</v>
+        <v>0.9394634746114805</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9536551056102824</v>
+        <v>0.9547339003938904</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6263</v>
@@ -2376,19 +2376,19 @@
         <v>6401759</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6370163</v>
+        <v>6369251</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6430198</v>
+        <v>6429521</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9619874053550527</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9572394786269589</v>
+        <v>0.9571024594721073</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9662610138392023</v>
+        <v>0.9661592237493654</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>3967</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9875</v>
+        <v>9097</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.008754499068635209</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.002243967825128489</v>
+        <v>0.002254053636679412</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02179298889353097</v>
+        <v>0.02007609900527841</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -2744,19 +2744,19 @@
         <v>8918</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4869</v>
+        <v>4056</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16751</v>
+        <v>16364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0207706304183518</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01134009021159936</v>
+        <v>0.009448185479648472</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03901578304278048</v>
+        <v>0.03811461976119307</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2765,19 +2765,19 @@
         <v>12884</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6838</v>
+        <v>7204</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22471</v>
+        <v>21226</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01460075506712413</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00774946946857686</v>
+        <v>0.008163343902620168</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02546485361375491</v>
+        <v>0.02405378501108007</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>449138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>443230</v>
+        <v>444008</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>452088</v>
+        <v>452084</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9912455009313648</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9782070111064695</v>
+        <v>0.9799239009947216</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9977560321748715</v>
+        <v>0.9977459463633206</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>411</v>
@@ -2815,19 +2815,19 @@
         <v>420421</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>412588</v>
+        <v>412975</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>424470</v>
+        <v>425283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9792293695816482</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9609842169572196</v>
+        <v>0.9618853802388054</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9886599097884007</v>
+        <v>0.9905518145203515</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>852</v>
@@ -2836,19 +2836,19 @@
         <v>869561</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>859974</v>
+        <v>861219</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>875607</v>
+        <v>875241</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9853992449328759</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9745351463862451</v>
+        <v>0.97594621498892</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9922505305314231</v>
+        <v>0.9918366560973798</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>9553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4670</v>
+        <v>4617</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20112</v>
+        <v>18999</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01392090604151402</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.006805670250830988</v>
+        <v>0.006728494663795252</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02930781281896003</v>
+        <v>0.02768620787678982</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>31</v>
@@ -2961,19 +2961,19 @@
         <v>33265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>23638</v>
+        <v>23227</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47225</v>
+        <v>47209</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05460372192368797</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03880110171227109</v>
+        <v>0.03812639424465359</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07751800732638015</v>
+        <v>0.07749224321730259</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -2982,19 +2982,19 @@
         <v>42818</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30519</v>
+        <v>30386</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57602</v>
+        <v>58615</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03305287010558419</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02355870449844405</v>
+        <v>0.02345593007110404</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04446493140458039</v>
+        <v>0.04524656107606127</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>676685</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>666126</v>
+        <v>667239</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>681568</v>
+        <v>681621</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.986079093958486</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9706921871810399</v>
+        <v>0.9723137921232101</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.993194329749169</v>
+        <v>0.9932715053362048</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>539</v>
@@ -3032,19 +3032,19 @@
         <v>575949</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>561989</v>
+        <v>562005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>585576</v>
+        <v>585987</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.945396278076312</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9224819926736193</v>
+        <v>0.922507756782697</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9611988982877289</v>
+        <v>0.9618736057553461</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1197</v>
@@ -3053,19 +3053,19 @@
         <v>1252633</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1237849</v>
+        <v>1236836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1264932</v>
+        <v>1265065</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9669471298944158</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9555350685954196</v>
+        <v>0.9547534389239388</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.976441295501556</v>
+        <v>0.9765440699288961</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>4905</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1784</v>
+        <v>1843</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10979</v>
+        <v>11335</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007213042034126607</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002623162688652246</v>
+        <v>0.002710143775566394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01614472747536038</v>
+        <v>0.01666751621638162</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -3178,19 +3178,19 @@
         <v>40482</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29778</v>
+        <v>29125</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54888</v>
+        <v>54760</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05734487980736768</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04218171929447069</v>
+        <v>0.04125768609302164</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07775267348630513</v>
+        <v>0.07757150225349556</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -3199,19 +3199,19 @@
         <v>45387</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>33220</v>
+        <v>32762</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>61687</v>
+        <v>60170</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03274703486131243</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0239682790898467</v>
+        <v>0.02363781286109149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04450760136314266</v>
+        <v>0.04341304457055848</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>675149</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>669075</v>
+        <v>668719</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>678270</v>
+        <v>678211</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9927869579658734</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9838552725246397</v>
+        <v>0.9833324837836181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9973768373113477</v>
+        <v>0.9972898562244336</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>625</v>
@@ -3249,19 +3249,19 @@
         <v>665453</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>651047</v>
+        <v>651175</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>676157</v>
+        <v>676810</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9426551201926323</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9222473265136949</v>
+        <v>0.9224284977465045</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9578182807055293</v>
+        <v>0.9587423139069784</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1269</v>
@@ -3270,19 +3270,19 @@
         <v>1340602</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1324302</v>
+        <v>1325819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1352769</v>
+        <v>1353227</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9672529651386875</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9554923986368573</v>
+        <v>0.9565869554294415</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9760317209101532</v>
+        <v>0.9763621871389085</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>5296</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2065</v>
+        <v>2032</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>11915</v>
+        <v>10893</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.008617162735130525</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003359728206069092</v>
+        <v>0.003306416808349772</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01938594093686352</v>
+        <v>0.01772299745355207</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -3395,19 +3395,19 @@
         <v>27510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19014</v>
+        <v>17263</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41079</v>
+        <v>41675</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04495194245007905</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03106852475965185</v>
+        <v>0.02820798553248473</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06712324219083578</v>
+        <v>0.06809657795037467</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>28</v>
@@ -3416,19 +3416,19 @@
         <v>32807</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22179</v>
+        <v>22246</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46887</v>
+        <v>46276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02674569803262399</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01808182994927853</v>
+        <v>0.01813586165859717</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03822493860069313</v>
+        <v>0.03772669648795704</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>609321</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>602702</v>
+        <v>603724</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>612552</v>
+        <v>612585</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9913828372648694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9806140590631366</v>
+        <v>0.9822770025464479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9966402717939309</v>
+        <v>0.9966935831916502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>512</v>
@@ -3466,19 +3466,19 @@
         <v>584483</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>570914</v>
+        <v>570318</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>592979</v>
+        <v>594730</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9550480575499209</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9328767578091641</v>
+        <v>0.9319034220496253</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9689314752403482</v>
+        <v>0.9717920144675153</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1055</v>
@@ -3487,19 +3487,19 @@
         <v>1193803</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1179723</v>
+        <v>1180334</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1204431</v>
+        <v>1204364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9732543019673761</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9617750613993069</v>
+        <v>0.9622733035120431</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9819181700507215</v>
+        <v>0.9818641383414032</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>2941</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8753</v>
+        <v>8086</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.006866769249309382</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001891564394215772</v>
+        <v>0.001875201676805401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02043453291884807</v>
+        <v>0.01887671228435783</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>26</v>
@@ -3612,19 +3612,19 @@
         <v>27013</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>18100</v>
+        <v>18551</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>37847</v>
+        <v>39835</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06032453756002601</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04041985860114367</v>
+        <v>0.04142617800203792</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0845180778709109</v>
+        <v>0.08895660801890555</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>29</v>
@@ -3633,19 +3633,19 @@
         <v>29955</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20294</v>
+        <v>19623</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41691</v>
+        <v>41876</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03418921622547415</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02316294638434467</v>
+        <v>0.02239651336480659</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04758429459832031</v>
+        <v>0.04779534484279692</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>425403</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>419591</v>
+        <v>420258</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>427534</v>
+        <v>427541</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9931332307506906</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9795654670811518</v>
+        <v>0.9811232877156415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9981084356057843</v>
+        <v>0.9981247983231946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>380</v>
@@ -3683,19 +3683,19 @@
         <v>420787</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>409953</v>
+        <v>407965</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>429700</v>
+        <v>429249</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.939675462439974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.915481922129089</v>
+        <v>0.9110433919810944</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9595801413988558</v>
+        <v>0.958573821997962</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>769</v>
@@ -3704,19 +3704,19 @@
         <v>846189</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>834453</v>
+        <v>834268</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>855850</v>
+        <v>856521</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9658107837745259</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9524157054016799</v>
+        <v>0.9522046551572036</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9768370536156554</v>
+        <v>0.9776034866351936</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>10145</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4864</v>
+        <v>5018</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18674</v>
+        <v>19998</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03295875418956287</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01580294963456833</v>
+        <v>0.0163038763824532</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06066950857480493</v>
+        <v>0.0649719076229682</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -3829,19 +3829,19 @@
         <v>28372</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>18337</v>
+        <v>18561</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40516</v>
+        <v>41073</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08036171883805056</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05193634734328395</v>
+        <v>0.05257134845832533</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.114757938054599</v>
+        <v>0.1163344473344447</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>34</v>
@@ -3850,19 +3850,19 @@
         <v>38517</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27971</v>
+        <v>27762</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55242</v>
+        <v>52838</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05828363296911123</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04232539016506488</v>
+        <v>0.04200862851005679</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08359215781756046</v>
+        <v>0.07995484819456386</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>297650</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>289121</v>
+        <v>287797</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>302931</v>
+        <v>302777</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9670412458104372</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9393304914251946</v>
+        <v>0.9350280923770315</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9841970503654317</v>
+        <v>0.9836961236175467</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>318</v>
@@ -3900,19 +3900,19 @@
         <v>324687</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>312543</v>
+        <v>311986</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>334722</v>
+        <v>334498</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9196382811619495</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8852420619454014</v>
+        <v>0.8836655526655551</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9480636526567161</v>
+        <v>0.9474286515416747</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>590</v>
@@ -3921,19 +3921,19 @@
         <v>622337</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>605612</v>
+        <v>608016</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>632883</v>
+        <v>633092</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9417163670308888</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9164078421824395</v>
+        <v>0.9200451518054363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9576746098349351</v>
+        <v>0.9579913714899433</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>8748</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3297</v>
+        <v>3331</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>20662</v>
+        <v>19746</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03512931823035574</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01323980245386727</v>
+        <v>0.01337738253508286</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08296928571123043</v>
+        <v>0.07929132840195827</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>43</v>
@@ -4046,19 +4046,19 @@
         <v>47469</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>35079</v>
+        <v>36009</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>61472</v>
+        <v>61755</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1227367960483623</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0907019059470672</v>
+        <v>0.09310479241150103</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.158943929984236</v>
+        <v>0.1596756706358017</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>49</v>
@@ -4067,19 +4067,19 @@
         <v>56217</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42210</v>
+        <v>41319</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73474</v>
+        <v>71648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08842130053580619</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06638932410236716</v>
+        <v>0.0649882160859009</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1155635260921846</v>
+        <v>0.1126916828782188</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>240288</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>228374</v>
+        <v>229290</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>245739</v>
+        <v>245705</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9648706817696443</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9170307142887704</v>
+        <v>0.9207086715980416</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9867601975461329</v>
+        <v>0.9866226174649171</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>305</v>
@@ -4117,19 +4117,19 @@
         <v>339284</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>325281</v>
+        <v>324998</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>351674</v>
+        <v>350744</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8772632039516377</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8410560700157642</v>
+        <v>0.8403243293641983</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.909298094052933</v>
+        <v>0.906895207588499</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>520</v>
@@ -4138,19 +4138,19 @@
         <v>579572</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>562315</v>
+        <v>564141</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>593579</v>
+        <v>594470</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9115786994641938</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8844364739078153</v>
+        <v>0.8873083171217813</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.933610675897633</v>
+        <v>0.9350117839140991</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>45556</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>32534</v>
+        <v>31808</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>61293</v>
+        <v>61312</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01332351681770602</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009515053600464606</v>
+        <v>0.00930292856154942</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01792620202957717</v>
+        <v>0.01793182119195608</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>195</v>
@@ -4263,19 +4263,19 @@
         <v>213030</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>186812</v>
+        <v>186209</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>246152</v>
+        <v>245560</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06010835181399181</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05271082209420064</v>
+        <v>0.05254052173751511</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06945415756656906</v>
+        <v>0.06928702712434376</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>235</v>
@@ -4284,19 +4284,19 @@
         <v>258585</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>228419</v>
+        <v>225909</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>292461</v>
+        <v>287718</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03713554212317843</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03280342163685292</v>
+        <v>0.0324429455565006</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04200041994124094</v>
+        <v>0.04131932100474935</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>3373632</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3357895</v>
+        <v>3357876</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3386654</v>
+        <v>3387380</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.986676483182294</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9820737979704227</v>
+        <v>0.9820681788080442</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9904849463995354</v>
+        <v>0.9906970714384508</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3090</v>
@@ -4334,19 +4334,19 @@
         <v>3331064</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3297942</v>
+        <v>3298534</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3357282</v>
+        <v>3357885</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9398916481860082</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.930545842433431</v>
+        <v>0.9307129728756562</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9472891779057994</v>
+        <v>0.9474594782624849</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6252</v>
@@ -4355,19 +4355,19 @@
         <v>6704697</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6670821</v>
+        <v>6675564</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6734863</v>
+        <v>6737373</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9628644578768216</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9579995800587591</v>
+        <v>0.9586806789952508</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.967196578363147</v>
+        <v>0.9675570544434995</v>
       </c>
     </row>
     <row r="27">
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4524</v>
+        <v>4968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002220947628154561</v>
@@ -4714,7 +4714,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01078430162879715</v>
+        <v>0.01184267118450748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4723,19 +4723,19 @@
         <v>11558</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6066</v>
+        <v>6631</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19130</v>
+        <v>19190</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.029204731291016</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01532656221749787</v>
+        <v>0.01675645082942087</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04833886159984831</v>
+        <v>0.04848856289775223</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -4744,19 +4744,19 @@
         <v>12490</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6808</v>
+        <v>6840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20172</v>
+        <v>20244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01532047114717786</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008350740439634376</v>
+        <v>0.008390436695131398</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02474483281214477</v>
+        <v>0.02483298722556065</v>
       </c>
     </row>
     <row r="5">
@@ -4773,7 +4773,7 @@
         <v>418531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>414939</v>
+        <v>414495</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>419463</v>
@@ -4782,7 +4782,7 @@
         <v>0.9977790523718454</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9892156983712035</v>
+        <v>0.9881573288154918</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -4794,19 +4794,19 @@
         <v>384197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>376625</v>
+        <v>376565</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>389689</v>
+        <v>389124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.970795268708984</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9516611384001517</v>
+        <v>0.9515114371022477</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9846734377825019</v>
+        <v>0.9832435491705791</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>784</v>
@@ -4815,19 +4815,19 @@
         <v>802728</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>795046</v>
+        <v>794974</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>808410</v>
+        <v>808378</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9846795288528222</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9752551671878549</v>
+        <v>0.975167012774439</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9916492595603656</v>
+        <v>0.9916095633048686</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>5947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2803</v>
+        <v>2021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12518</v>
+        <v>12945</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01007100198797253</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004746336764525266</v>
+        <v>0.003422303705969782</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0211985683309131</v>
+        <v>0.02192153491266395</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -4940,19 +4940,19 @@
         <v>14998</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8647</v>
+        <v>8585</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23509</v>
+        <v>24597</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02661287988028129</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01534452089206125</v>
+        <v>0.0152341962890337</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04171663442881549</v>
+        <v>0.04364673481127335</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -4961,19 +4961,19 @@
         <v>20944</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13428</v>
+        <v>13097</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>30114</v>
+        <v>30147</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01814877333149401</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01163594438193261</v>
+        <v>0.01134908455488094</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02609441993110484</v>
+        <v>0.02612263306180824</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>584549</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>577978</v>
+        <v>577551</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>587693</v>
+        <v>588475</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9899289980120275</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9788014316690871</v>
+        <v>0.9780784650873361</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9952536632354748</v>
+        <v>0.9965776962940303</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>563</v>
@@ -5011,19 +5011,19 @@
         <v>548546</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>540035</v>
+        <v>538947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>554897</v>
+        <v>554959</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9733871201197187</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9582833655711845</v>
+        <v>0.9563532651887262</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9846554791079388</v>
+        <v>0.9847658037109661</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1124</v>
@@ -5032,19 +5032,19 @@
         <v>1133096</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1123926</v>
+        <v>1123893</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1140612</v>
+        <v>1140943</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.981851226668506</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9739055800688952</v>
+        <v>0.973877366938192</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9883640556180676</v>
+        <v>0.9886509154451191</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>4095</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10150</v>
+        <v>9437</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006119723948426043</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001576084737412616</v>
+        <v>0.00156549709941088</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01516979975917153</v>
+        <v>0.01410482960850097</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -5157,19 +5157,19 @@
         <v>26972</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>18751</v>
+        <v>18775</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38276</v>
+        <v>39116</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04078172931582161</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02835131094672776</v>
+        <v>0.02838720070164679</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05787217188814097</v>
+        <v>0.05914311545764102</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -5178,19 +5178,19 @@
         <v>31067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22033</v>
+        <v>21461</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>44181</v>
+        <v>43759</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02335029005546123</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01656017913812867</v>
+        <v>0.0161300707089405</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03320683436441075</v>
+        <v>0.03288991550057469</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>665002</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>658947</v>
+        <v>659660</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>668042</v>
+        <v>668050</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9938802760515739</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9848302002408285</v>
+        <v>0.9858951703914987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9984239152625873</v>
+        <v>0.9984345029005891</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>638</v>
@@ -5228,19 +5228,19 @@
         <v>634414</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>623110</v>
+        <v>622270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>642635</v>
+        <v>642611</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9592182706841784</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.942127828111859</v>
+        <v>0.9408568845423588</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9716486890532722</v>
+        <v>0.9716127992983531</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1272</v>
@@ -5249,19 +5249,19 @@
         <v>1299416</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1286302</v>
+        <v>1286724</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1308450</v>
+        <v>1309022</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9766497099445388</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9667931656355886</v>
+        <v>0.9671100844994256</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9834398208618713</v>
+        <v>0.9838699292910597</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>6731</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2424</v>
+        <v>3133</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13831</v>
+        <v>15201</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01041821182966136</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.00375224553427165</v>
+        <v>0.004849988994680511</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02140855410198273</v>
+        <v>0.02352983865863433</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>23</v>
@@ -5374,19 +5374,19 @@
         <v>26029</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17195</v>
+        <v>16977</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39776</v>
+        <v>39958</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04010196131832744</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02649112555477904</v>
+        <v>0.02615576713500038</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06128065605697529</v>
+        <v>0.0615606303065975</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>29</v>
@@ -5395,19 +5395,19 @@
         <v>32760</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22338</v>
+        <v>22577</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46281</v>
+        <v>46061</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02529479418890456</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01724745044757863</v>
+        <v>0.01743192170227852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03573452453407635</v>
+        <v>0.03556504363165119</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>639317</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>632217</v>
+        <v>630847</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>643624</v>
+        <v>642915</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9895817881703386</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9785914458980174</v>
+        <v>0.9764701613413656</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9962477544657283</v>
+        <v>0.9951500110053194</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>579</v>
@@ -5445,19 +5445,19 @@
         <v>623048</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>609301</v>
+        <v>609119</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>631882</v>
+        <v>632100</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9598980386816726</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9387193439430245</v>
+        <v>0.9384393696934025</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9735088744452208</v>
+        <v>0.9738442328649995</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1155</v>
@@ -5466,19 +5466,19 @@
         <v>1262365</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1248844</v>
+        <v>1249064</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1272787</v>
+        <v>1272548</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9747052058110954</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9642654754659242</v>
+        <v>0.9644349563683488</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9827525495524215</v>
+        <v>0.9825680782977214</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>7624</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2337</v>
+        <v>3172</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15562</v>
+        <v>16921</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01595326064582735</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.004890393624135216</v>
+        <v>0.006636365187290873</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03256156620390561</v>
+        <v>0.03540597218622638</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -5591,19 +5591,19 @@
         <v>19527</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12039</v>
+        <v>12061</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30186</v>
+        <v>29237</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0393011579359189</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02423167048628187</v>
+        <v>0.02427561988659795</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06075574012018329</v>
+        <v>0.05884447736733749</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -5612,19 +5612,19 @@
         <v>27151</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18378</v>
+        <v>17681</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41506</v>
+        <v>40138</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02785392968237387</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01885389710959821</v>
+        <v>0.01813858767309453</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04258011503949308</v>
+        <v>0.04117752591855199</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>470294</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>462356</v>
+        <v>460997</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>475581</v>
+        <v>474746</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9840467393541726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9674384337960944</v>
+        <v>0.9645940278137737</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9951096063758648</v>
+        <v>0.9933636348127091</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>415</v>
@@ -5662,19 +5662,19 @@
         <v>477322</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>466663</v>
+        <v>467612</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>484810</v>
+        <v>484788</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9606988420640811</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9392442598798167</v>
+        <v>0.9411555226326624</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9757683295137182</v>
+        <v>0.975724380113402</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>833</v>
@@ -5683,19 +5683,19 @@
         <v>947616</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>933261</v>
+        <v>934629</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>956389</v>
+        <v>957086</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9721460703176261</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.957419884960507</v>
+        <v>0.9588224740814482</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9811461028904018</v>
+        <v>0.9818614123269056</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>7001</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2968</v>
+        <v>2925</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13289</v>
+        <v>13022</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02093986999064424</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008877061393611984</v>
+        <v>0.008750153346537004</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03974791590837584</v>
+        <v>0.03894915982185058</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -5808,19 +5808,19 @@
         <v>21914</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14126</v>
+        <v>13941</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32369</v>
+        <v>32204</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05801078222165071</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03739469877212884</v>
+        <v>0.03690536603301706</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08568517753928852</v>
+        <v>0.08524962849159823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>28</v>
@@ -5829,19 +5829,19 @@
         <v>28915</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18583</v>
+        <v>19695</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>39151</v>
+        <v>41762</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04060584294114217</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02609613614433912</v>
+        <v>0.02765770402303293</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05498072740568268</v>
+        <v>0.05864647911730534</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>327329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>321041</v>
+        <v>321308</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>331362</v>
+        <v>331405</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9790601300093558</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.960252084091624</v>
+        <v>0.9610508401781493</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.991122938606388</v>
+        <v>0.9912498466534629</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>333</v>
@@ -5879,19 +5879,19 @@
         <v>355848</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>345393</v>
+        <v>345558</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>363636</v>
+        <v>363821</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9419892177783493</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9143148224607115</v>
+        <v>0.9147503715084012</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9626053012278715</v>
+        <v>0.9630946339669827</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>651</v>
@@ -5900,19 +5900,19 @@
         <v>683177</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>672941</v>
+        <v>670330</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>693509</v>
+        <v>692397</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9593941570588579</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9450192725943174</v>
+        <v>0.9413535208826947</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.973903863855661</v>
+        <v>0.9723422959769672</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>11014</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6577</v>
+        <v>5875</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18412</v>
+        <v>17278</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04285690149328485</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02559172370238124</v>
+        <v>0.02285867880864557</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07164214198714727</v>
+        <v>0.06723003150087584</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>20</v>
@@ -6025,19 +6025,19 @@
         <v>26087</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16662</v>
+        <v>16157</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>39481</v>
+        <v>38923</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0651893402592629</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04163658646605183</v>
+        <v>0.04037520205028988</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09866206162085626</v>
+        <v>0.09726560422249542</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -6046,19 +6046,19 @@
         <v>37101</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>26347</v>
+        <v>25366</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>49484</v>
+        <v>51427</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05645580355179849</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04009145498909204</v>
+        <v>0.03859900593858172</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07529848284995473</v>
+        <v>0.07825506833093658</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>245984</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>238586</v>
+        <v>239720</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250421</v>
+        <v>251123</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9571430985067152</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.928357858012853</v>
+        <v>0.9327699684991245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9744082762976187</v>
+        <v>0.9771413211913544</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>281</v>
@@ -6096,19 +6096,19 @@
         <v>374082</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>360688</v>
+        <v>361246</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>383507</v>
+        <v>384012</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9348106597407371</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9013379383791441</v>
+        <v>0.9027343957775052</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9583634135339483</v>
+        <v>0.9596247979497102</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>570</v>
@@ -6117,19 +6117,19 @@
         <v>620066</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>607683</v>
+        <v>605740</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>630820</v>
+        <v>631801</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9435441964482015</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9247015171500452</v>
+        <v>0.9217449316690632</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9599085450109077</v>
+        <v>0.9614009940614183</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>43343</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>30639</v>
+        <v>31372</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58631</v>
+        <v>57466</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01276920811419563</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009026479037089185</v>
+        <v>0.009242280838390963</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01727313978615082</v>
+        <v>0.01692991018938545</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>137</v>
@@ -6242,19 +6242,19 @@
         <v>147085</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>124950</v>
+        <v>123820</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>173519</v>
+        <v>173737</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04149617599525333</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.035251451864123</v>
+        <v>0.03493270032981925</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04895396728801372</v>
+        <v>0.04901533423396617</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>180</v>
@@ -6263,19 +6263,19 @@
         <v>190428</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>166986</v>
+        <v>166041</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>221500</v>
+        <v>220499</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02744358828001646</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0240652401626078</v>
+        <v>0.02392903685933381</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03192150359104742</v>
+        <v>0.03177723846703377</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>3351007</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3335719</v>
+        <v>3336884</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3363711</v>
+        <v>3362978</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9872307918858044</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9827268602138493</v>
+        <v>0.9830700898106146</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9909735209629109</v>
+        <v>0.9907577191616092</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3201</v>
@@ -6313,19 +6313,19 @@
         <v>3397457</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3371023</v>
+        <v>3370805</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3419592</v>
+        <v>3420722</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9585038240047467</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9510460327119862</v>
+        <v>0.9509846657660338</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.964748548135877</v>
+        <v>0.9650672996701807</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6389</v>
@@ -6334,19 +6334,19 @@
         <v>6748464</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6717392</v>
+        <v>6718393</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6771906</v>
+        <v>6772851</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9725564117199835</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9680784964089518</v>
+        <v>0.9682227615329656</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9759347598373921</v>
+        <v>0.976070963140666</v>
       </c>
     </row>
     <row r="27">
@@ -6684,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10054</v>
+        <v>8628</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004058361488176049</v>
@@ -6693,7 +6693,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02465539870223313</v>
+        <v>0.02115790964859997</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -6702,19 +6702,19 @@
         <v>8742</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2384</v>
+        <v>2344</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21455</v>
+        <v>20347</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02411400100771248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006575252815368733</v>
+        <v>0.006465552496119537</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05918432498055926</v>
+        <v>0.05612695777694236</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -6723,19 +6723,19 @@
         <v>10397</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3946</v>
+        <v>3322</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23644</v>
+        <v>21972</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01349671270791748</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005123154597468013</v>
+        <v>0.004312018944008628</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03069455529198866</v>
+        <v>0.02852326474403333</v>
       </c>
     </row>
     <row r="5">
@@ -6752,7 +6752,7 @@
         <v>406138</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>397739</v>
+        <v>399165</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>407793</v>
@@ -6761,7 +6761,7 @@
         <v>0.995941638511824</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9753446012977669</v>
+        <v>0.9788420903514001</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -6773,19 +6773,19 @@
         <v>353770</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>341057</v>
+        <v>342165</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360128</v>
+        <v>360168</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9758859989922876</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9408156750194406</v>
+        <v>0.9438730422230579</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9934247471846313</v>
+        <v>0.9935344475038804</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>374</v>
@@ -6794,19 +6794,19 @@
         <v>759908</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>746661</v>
+        <v>748333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>766359</v>
+        <v>766983</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9865032872920827</v>
+        <v>0.9865032872920826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9693054447080112</v>
+        <v>0.9714767352559667</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9948768454025321</v>
+        <v>0.9956879810559913</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>5824</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1566</v>
+        <v>1587</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>15408</v>
+        <v>16125</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01221185122414225</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003284109807633319</v>
+        <v>0.003327097668351652</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03230962981494251</v>
+        <v>0.03381365845548066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -6919,19 +6919,19 @@
         <v>15531</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8820</v>
+        <v>8193</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24930</v>
+        <v>25361</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03099553232286715</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01760157929332247</v>
+        <v>0.01635112794608972</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04975152025273003</v>
+        <v>0.05061326284203579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -6940,19 +6940,19 @@
         <v>21355</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12599</v>
+        <v>12806</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33024</v>
+        <v>35682</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02183602443655847</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01288303835510013</v>
+        <v>0.01309397989002541</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03376789977527019</v>
+        <v>0.03648612613013722</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>471066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>461482</v>
+        <v>460765</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>475324</v>
+        <v>475303</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9877881487758577</v>
+        <v>0.9877881487758579</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9676903701850575</v>
+        <v>0.9661863415445194</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9967158901923667</v>
+        <v>0.9966729023316484</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>446</v>
@@ -6990,19 +6990,19 @@
         <v>485552</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>476153</v>
+        <v>475722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>492263</v>
+        <v>492890</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9690044676771328</v>
+        <v>0.9690044676771327</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.95024847974727</v>
+        <v>0.9493867371579644</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9823984207066775</v>
+        <v>0.9836488720539104</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>745</v>
@@ -7011,19 +7011,19 @@
         <v>956618</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>944949</v>
+        <v>942291</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>965374</v>
+        <v>965167</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9781639755634414</v>
+        <v>0.9781639755634416</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9662321002247297</v>
+        <v>0.9635138738698636</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9871169616448998</v>
+        <v>0.9869060201099747</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>6754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2285</v>
+        <v>2305</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14671</v>
+        <v>13900</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01087946117905425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003681101264992382</v>
+        <v>0.003712502720700625</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02363132599678391</v>
+        <v>0.02238934508774536</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -7136,19 +7136,19 @@
         <v>17241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11859</v>
+        <v>11158</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>25430</v>
+        <v>24792</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02771279255508692</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01906235359103655</v>
+        <v>0.01793413930017519</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04087542491122042</v>
+        <v>0.03984941411008671</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -7157,19 +7157,19 @@
         <v>23996</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>16595</v>
+        <v>16354</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>35067</v>
+        <v>34049</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01930494610793478</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01335100080277904</v>
+        <v>0.01315679837210833</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02821215423458677</v>
+        <v>0.02739325555307106</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>614083</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>606166</v>
+        <v>606937</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>618552</v>
+        <v>618532</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.989120538820946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9763686740032163</v>
+        <v>0.9776106549122547</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9963188987350076</v>
+        <v>0.9962874972792992</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>821</v>
@@ -7207,19 +7207,19 @@
         <v>604898</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>596709</v>
+        <v>597347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>610280</v>
+        <v>610981</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9722872074449129</v>
+        <v>0.9722872074449133</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9591245750887797</v>
+        <v>0.9601505858899133</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9809376464089636</v>
+        <v>0.9820658606998248</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1361</v>
@@ -7228,19 +7228,19 @@
         <v>1218980</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1207909</v>
+        <v>1208927</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1226381</v>
+        <v>1226622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9806950538920652</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9717878457654129</v>
+        <v>0.9726067444469289</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9866489991972208</v>
+        <v>0.9868432016278916</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>15768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9126</v>
+        <v>9034</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>26438</v>
+        <v>25993</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0225059812050641</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01302566545887458</v>
+        <v>0.01289467619050448</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03773525945062835</v>
+        <v>0.0371002166143717</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -7353,19 +7353,19 @@
         <v>37747</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28800</v>
+        <v>29440</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>47479</v>
+        <v>49078</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05122502698376077</v>
+        <v>0.05122502698376078</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03908289918007887</v>
+        <v>0.03995188613325679</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06443136436970091</v>
+        <v>0.06660154426015216</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>76</v>
@@ -7374,19 +7374,19 @@
         <v>53515</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41558</v>
+        <v>41784</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>68384</v>
+        <v>66680</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03722780486166434</v>
+        <v>0.03722780486166435</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02890954986670496</v>
+        <v>0.02906685209216143</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04757117284324861</v>
+        <v>0.04638586213125955</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>684849</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>674179</v>
+        <v>674624</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>691491</v>
+        <v>691583</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9774940187949361</v>
+        <v>0.9774940187949358</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9622647405493717</v>
+        <v>0.9628997833856285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9869743345411255</v>
+        <v>0.9871053238094957</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1079</v>
@@ -7424,19 +7424,19 @@
         <v>699139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>689407</v>
+        <v>687808</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>708086</v>
+        <v>707446</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9487749730162393</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9355686356302989</v>
+        <v>0.9333984557398478</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9609171008199211</v>
+        <v>0.9600481138667432</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1730</v>
@@ -7445,19 +7445,19 @@
         <v>1383989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1369120</v>
+        <v>1370824</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1395946</v>
+        <v>1395720</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9627721951383355</v>
+        <v>0.9627721951383356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9524288271567513</v>
+        <v>0.9536141378687407</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.971090450133295</v>
+        <v>0.9709331479078387</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>21398</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14575</v>
+        <v>14715</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>31586</v>
+        <v>32359</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03517294267892447</v>
+        <v>0.03517294267892446</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02395822190382367</v>
+        <v>0.02418741880122822</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0519204673118939</v>
+        <v>0.05319062801663891</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -7570,19 +7570,19 @@
         <v>42464</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33905</v>
+        <v>32810</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>54374</v>
+        <v>50870</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.06990477500254856</v>
+        <v>0.06990477500254855</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05581575340698303</v>
+        <v>0.05401287190808398</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08951286565885186</v>
+        <v>0.08374344134968828</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>98</v>
@@ -7591,19 +7591,19 @@
         <v>63861</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52170</v>
+        <v>52393</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>78318</v>
+        <v>77277</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05252584416968391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04290936265742541</v>
+        <v>0.04309354087555729</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06441613388168442</v>
+        <v>0.06356004077024546</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>586961</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>576773</v>
+        <v>576000</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>593784</v>
+        <v>593644</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9648270573210757</v>
+        <v>0.9648270573210754</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9480795326881059</v>
+        <v>0.9468093719833611</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9760417780961763</v>
+        <v>0.9758125811987719</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>928</v>
@@ -7641,19 +7641,19 @@
         <v>564984</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>553074</v>
+        <v>556578</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>573543</v>
+        <v>574638</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9300952249974513</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9104871343411479</v>
+        <v>0.9162565586503115</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9441842465930169</v>
+        <v>0.9459871280919161</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1564</v>
@@ -7662,19 +7662,19 @@
         <v>1151946</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1137489</v>
+        <v>1138530</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1163637</v>
+        <v>1163414</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9474741558303161</v>
+        <v>0.9474741558303162</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9355838661183157</v>
+        <v>0.9364399592297544</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9570906373425746</v>
+        <v>0.9569064591244427</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>13492</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>8453</v>
+        <v>8270</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>22046</v>
+        <v>21626</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03314434117326592</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02076522004690827</v>
+        <v>0.02031450976620603</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05415728436318572</v>
+        <v>0.0531250943313884</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -7787,19 +7787,19 @@
         <v>29137</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22509</v>
+        <v>22500</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>38629</v>
+        <v>38336</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06634569135548199</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05125395961538651</v>
+        <v>0.05123252176171045</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.08795953937008814</v>
+        <v>0.08729341243149176</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>72</v>
@@ -7808,19 +7808,19 @@
         <v>42629</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>33394</v>
+        <v>33088</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53239</v>
+        <v>52826</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05037445134795785</v>
+        <v>0.05037445134795786</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03946146899481837</v>
+        <v>0.03910031953252362</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06291202092032093</v>
+        <v>0.06242363530744651</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>393588</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>385034</v>
+        <v>385454</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>398627</v>
+        <v>398810</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9668556588267341</v>
+        <v>0.9668556588267342</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9458427156368143</v>
+        <v>0.9468749056686113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9792347799530922</v>
+        <v>0.9796854902337938</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>774</v>
@@ -7858,19 +7858,19 @@
         <v>410029</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>400537</v>
+        <v>400830</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>416657</v>
+        <v>416666</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9336543086445181</v>
+        <v>0.933654308644518</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9120404606299117</v>
+        <v>0.9127065875685084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9487460403846137</v>
+        <v>0.9487674782382896</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1325</v>
@@ -7879,19 +7879,19 @@
         <v>803617</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>793007</v>
+        <v>793420</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>812852</v>
+        <v>813158</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.949625548652042</v>
+        <v>0.9496255486520422</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9370879790796789</v>
+        <v>0.9375763646925533</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9605385310051816</v>
+        <v>0.9608996804674764</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>12149</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7543</v>
+        <v>7701</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18633</v>
+        <v>18302</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03922872903831121</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0243540090783241</v>
+        <v>0.0248668530467725</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0601634925938631</v>
+        <v>0.0590952151948937</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -8004,19 +8004,19 @@
         <v>49273</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>39965</v>
+        <v>40486</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>59282</v>
+        <v>59899</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1064026729203304</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08630235137895721</v>
+        <v>0.08742885505483267</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1280179999101311</v>
+        <v>0.1293504499176671</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>118</v>
@@ -8025,19 +8025,19 @@
         <v>61422</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50528</v>
+        <v>49896</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>73444</v>
+        <v>72723</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.0794817576120715</v>
+        <v>0.07948175761207153</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06538497785735826</v>
+        <v>0.06456658614117115</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09503797529495163</v>
+        <v>0.09410522683576665</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>297554</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>291070</v>
+        <v>291401</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>302160</v>
+        <v>302002</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9607712709616888</v>
+        <v>0.9607712709616887</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.939836507406137</v>
+        <v>0.9409047848051062</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9756459909216759</v>
+        <v>0.9751331469532273</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>780</v>
@@ -8075,19 +8075,19 @@
         <v>413806</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>403797</v>
+        <v>403180</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>423114</v>
+        <v>422593</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8935973270796698</v>
+        <v>0.8935973270796697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8719820000898691</v>
+        <v>0.8706495500823328</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9136976486210429</v>
+        <v>0.9125711449451672</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1217</v>
@@ -8096,19 +8096,19 @@
         <v>711360</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>699338</v>
+        <v>700059</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>722254</v>
+        <v>722886</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9205182423879285</v>
+        <v>0.9205182423879286</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9049620247050484</v>
+        <v>0.9058947731642335</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9346150221426417</v>
+        <v>0.9354334138588291</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>77041</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>61801</v>
+        <v>61458</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>97029</v>
+        <v>95935</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02181661457290775</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01750095081419149</v>
+        <v>0.01740374855571909</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02747710060656051</v>
+        <v>0.02716706829890591</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>328</v>
@@ -8221,19 +8221,19 @@
         <v>200134</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>178458</v>
+        <v>178491</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>224117</v>
+        <v>223712</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05362204465236969</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04781439752896498</v>
+        <v>0.04782308958323538</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06004761908896834</v>
+        <v>0.05993935262044658</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>417</v>
@@ -8242,19 +8242,19 @@
         <v>277175</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>250321</v>
+        <v>250642</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>307025</v>
+        <v>306739</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03815946764263832</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0344623917043537</v>
+        <v>0.03450654779983976</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04226908147735559</v>
+        <v>0.04222967312488109</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>3454239</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3434251</v>
+        <v>3435345</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3469479</v>
+        <v>3469822</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9781833854270924</v>
+        <v>0.9781833854270922</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9725228993934393</v>
+        <v>0.9728329317010939</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9824990491858084</v>
+        <v>0.982596251444281</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5031</v>
@@ -8292,19 +8292,19 @@
         <v>3532179</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3508196</v>
+        <v>3508601</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3553855</v>
+        <v>3553822</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9463779553476304</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9399523809110319</v>
+        <v>0.9400606473795535</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9521856024710352</v>
+        <v>0.9521769104167648</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8316</v>
@@ -8313,19 +8313,19 @@
         <v>6986418</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6956568</v>
+        <v>6956854</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7013272</v>
+        <v>7012951</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9618405323573618</v>
+        <v>0.9618405323573616</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9577309185226445</v>
+        <v>0.9577703268751189</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9655376082956465</v>
+        <v>0.9654934522001604</v>
       </c>
     </row>
     <row r="27">
